--- a/17.staff/types.xlsx
+++ b/17.staff/types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\17.staff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83396E6F-3AAC-481F-A273-CEB40F3DBD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50BB536-639B-4DA2-B1E0-85AE0FACF452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,30 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$129</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="145">
   <si>
     <t>Project</t>
   </si>
@@ -117,9 +128,6 @@
     <t>Cairo Capital</t>
   </si>
   <si>
-    <t>Gabil Elzid</t>
-  </si>
-  <si>
     <t>UpTown PKG 62</t>
   </si>
   <si>
@@ -465,7 +473,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>temp</t>
+    <t>Railway</t>
   </si>
 </sst>
 </file>
@@ -790,11 +798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33:B130"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -967,7 +975,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -975,23 +983,23 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -999,7 +1007,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1007,7 +1015,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1015,15 +1023,15 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1031,15 +1039,15 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1047,7 +1055,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,7 +1063,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1063,7 +1071,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1071,7 +1079,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1087,7 +1095,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1095,7 +1103,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1103,7 +1111,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1111,7 +1119,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1119,7 +1127,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1127,7 +1135,7 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1135,7 +1143,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1143,7 +1151,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1151,7 +1159,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1159,15 +1167,15 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1175,7 +1183,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1183,7 +1191,7 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1191,7 +1199,7 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1199,7 +1207,7 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1207,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1215,7 +1223,7 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1223,7 +1231,7 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1231,7 +1239,7 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1239,7 +1247,7 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1247,7 +1255,7 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1255,7 +1263,7 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1263,7 +1271,7 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1271,7 +1279,7 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1279,7 +1287,7 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1287,7 +1295,7 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1303,7 +1311,7 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1327,7 +1335,7 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1335,7 +1343,7 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1351,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1359,7 +1367,7 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1399,7 +1407,7 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1407,7 +1415,7 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1415,7 +1423,7 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1431,7 +1439,7 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1439,7 +1447,7 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1447,7 +1455,7 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1455,7 +1463,7 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1463,7 +1471,7 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1471,7 +1479,7 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1479,7 +1487,7 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1487,7 +1495,7 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1495,7 +1503,7 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1503,7 +1511,7 @@
         <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1511,7 +1519,7 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1519,7 +1527,7 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1527,7 +1535,7 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1535,7 +1543,7 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1543,7 +1551,7 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1551,7 +1559,7 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1559,7 +1567,7 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1575,7 +1583,7 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1583,7 +1591,7 @@
         <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1591,7 +1599,7 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1599,7 +1607,7 @@
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1607,7 +1615,7 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1615,7 +1623,7 @@
         <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1623,7 +1631,7 @@
         <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1639,7 +1647,7 @@
         <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1647,15 +1655,15 @@
         <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1663,7 +1671,7 @@
         <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1671,7 +1679,7 @@
         <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1679,7 +1687,7 @@
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1687,7 +1695,7 @@
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1695,7 +1703,7 @@
         <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1703,7 +1711,7 @@
         <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1711,7 +1719,7 @@
         <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1719,7 +1727,7 @@
         <v>128</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1727,7 +1735,7 @@
         <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1735,7 +1743,7 @@
         <v>130</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1751,7 +1759,7 @@
         <v>132</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1759,7 +1767,7 @@
         <v>133</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1767,7 +1775,7 @@
         <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1775,7 +1783,7 @@
         <v>135</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1791,7 +1799,7 @@
         <v>137</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1799,7 +1807,7 @@
         <v>138</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1807,7 +1815,7 @@
         <v>139</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1815,7 +1823,7 @@
         <v>140</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1823,7 +1831,7 @@
         <v>141</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -1831,19 +1839,11 @@
         <v>142</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>143</v>
-      </c>
-      <c r="B130" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B130" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B129" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>